--- a/medicine/Psychotrope/Vitis_aestivalis/Vitis_aestivalis.xlsx
+++ b/medicine/Psychotrope/Vitis_aestivalis/Vitis_aestivalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vitis aestivalis est une espèce d'arbrisseaux sarmenteux de la famille des Vitaceae. Elle est cultivée pour ses fruits en grappes. Ses raisins possèdent un goût foxé. Elle est originaire d'Amérique du Nord. 
 </t>
@@ -511,7 +523,9 @@
           <t>Cultivars et hybridations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De nombreux croisements ont été réalisés avec des espèces américaines pour obtenir des porte-greffes ou des hybrides. Certains hybrides font encore l'objet d'une culture importante :
 Jacquez
@@ -547,7 +561,9 @@
           <t>Noms viticoles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vitis aestivalis est connu sous les noms d'« American Grape Vine, Bunch Grape, Chicken Grape, Common Blue Grape, Duck-sho grape, Little Grape, Pigeon Grape, Rusty Grape, Small Grape, Sommerrebe, Sour Grape, Summer Grape, Swamp Grape, Winter Grape, vigne d'été et Uva Trepadora ».
 </t>
@@ -578,9 +594,11 @@
           <t>Rites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vitis aestivalis faisait partie des rites religieux du peuples des Cherokee[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vitis aestivalis faisait partie des rites religieux du peuples des Cherokee.
 </t>
         </is>
       </c>
